--- a/MetricsDataset.xlsx
+++ b/MetricsDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Metrics\GQM-Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DB4BC4-6E82-4BB5-8DB9-3CAF472654FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82085F1-6913-4F8A-B3BE-1742AF2FC2C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -826,7 +826,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5537,7 +5537,7 @@
         <v>145</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="D67" s="3">
         <v>23</v>
